--- a/math/7.day_so_cap_so_cong_cap_so_nhan.xlsx
+++ b/math/7.day_so_cap_so_cong_cap_so_nhan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="pp_toan_quy_nap" sheetId="1" r:id="rId1"/>
@@ -6904,8 +6904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H96" sqref="H96"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7191,8 +7191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
